--- a/Code/Results/Cases/Case_4_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.023193810463462</v>
+        <v>1.047761014565285</v>
       </c>
       <c r="D2">
-        <v>1.036573993794319</v>
+        <v>1.04858369611772</v>
       </c>
       <c r="E2">
-        <v>1.040251655406487</v>
+        <v>1.061476079636409</v>
       </c>
       <c r="F2">
-        <v>1.045838444020936</v>
+        <v>1.069092229906419</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.057399344057191</v>
+        <v>1.047367400325523</v>
       </c>
       <c r="J2">
-        <v>1.044702257724331</v>
+        <v>1.052808364554159</v>
       </c>
       <c r="K2">
-        <v>1.047546267079029</v>
+        <v>1.051343135170294</v>
       </c>
       <c r="L2">
-        <v>1.05117731847715</v>
+        <v>1.064200037213684</v>
       </c>
       <c r="M2">
-        <v>1.056694082435177</v>
+        <v>1.071795661885899</v>
       </c>
       <c r="N2">
-        <v>1.046185854759324</v>
+        <v>1.054303473190633</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027732757503149</v>
+        <v>1.048713810897527</v>
       </c>
       <c r="D3">
-        <v>1.039914189681612</v>
+        <v>1.049298136647545</v>
       </c>
       <c r="E3">
-        <v>1.044489511466693</v>
+        <v>1.062420903950883</v>
       </c>
       <c r="F3">
-        <v>1.050411409061904</v>
+        <v>1.070119402645932</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.059066646763293</v>
+        <v>1.047653923427502</v>
       </c>
       <c r="J3">
-        <v>1.047494926334694</v>
+        <v>1.053409748226745</v>
       </c>
       <c r="K3">
-        <v>1.050060615284257</v>
+        <v>1.051869902944492</v>
       </c>
       <c r="L3">
-        <v>1.054583109404185</v>
+        <v>1.064959161825411</v>
       </c>
       <c r="M3">
-        <v>1.060437473931885</v>
+        <v>1.07263841461085</v>
       </c>
       <c r="N3">
-        <v>1.048982489279437</v>
+        <v>1.054905710897013</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.030610083833085</v>
+        <v>1.049330711910519</v>
       </c>
       <c r="D4">
-        <v>1.042033849304481</v>
+        <v>1.049760670503712</v>
       </c>
       <c r="E4">
-        <v>1.047180988681565</v>
+        <v>1.063033009318421</v>
       </c>
       <c r="F4">
-        <v>1.05331598500634</v>
+        <v>1.070784931949798</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.060113622338377</v>
+        <v>1.047838209235339</v>
       </c>
       <c r="J4">
-        <v>1.04926191822824</v>
+        <v>1.05379862556187</v>
       </c>
       <c r="K4">
-        <v>1.051650110422286</v>
+        <v>1.052210326822326</v>
       </c>
       <c r="L4">
-        <v>1.056741470948836</v>
+        <v>1.065450479176373</v>
       </c>
       <c r="M4">
-        <v>1.062810854870554</v>
+        <v>1.07318399904279</v>
       </c>
       <c r="N4">
-        <v>1.050751990504148</v>
+        <v>1.055295140482559</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.031805930384323</v>
+        <v>1.049590146791748</v>
       </c>
       <c r="D5">
-        <v>1.042915293515561</v>
+        <v>1.049955176735991</v>
       </c>
       <c r="E5">
-        <v>1.048300770163702</v>
+        <v>1.063290514669869</v>
       </c>
       <c r="F5">
-        <v>1.054524498474061</v>
+        <v>1.071064930035245</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.060546331288401</v>
+        <v>1.047915415833096</v>
       </c>
       <c r="J5">
-        <v>1.049995468398296</v>
+        <v>1.053962047000609</v>
       </c>
       <c r="K5">
-        <v>1.052309630002928</v>
+        <v>1.052353337240127</v>
       </c>
       <c r="L5">
-        <v>1.057638325881308</v>
+        <v>1.065657055103779</v>
       </c>
       <c r="M5">
-        <v>1.063797317058412</v>
+        <v>1.073413425707827</v>
       </c>
       <c r="N5">
-        <v>1.051486582399586</v>
+        <v>1.055458793998487</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.032005924351843</v>
+        <v>1.049633712286027</v>
       </c>
       <c r="D6">
-        <v>1.043062734255891</v>
+        <v>1.049987838496122</v>
       </c>
       <c r="E6">
-        <v>1.048488111286444</v>
+        <v>1.063333761254983</v>
       </c>
       <c r="F6">
-        <v>1.054726689105294</v>
+        <v>1.07111195520378</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.060618554188782</v>
+        <v>1.047928363479651</v>
       </c>
       <c r="J6">
-        <v>1.0501180980528</v>
+        <v>1.053989482485574</v>
       </c>
       <c r="K6">
-        <v>1.05241986322998</v>
+        <v>1.052377343209166</v>
       </c>
       <c r="L6">
-        <v>1.057788304764306</v>
+        <v>1.065691741615235</v>
       </c>
       <c r="M6">
-        <v>1.063962296220603</v>
+        <v>1.073451951118975</v>
       </c>
       <c r="N6">
-        <v>1.051609386202265</v>
+        <v>1.055486268444987</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.030626116293978</v>
+        <v>1.04933417814067</v>
       </c>
       <c r="D7">
-        <v>1.042045664757985</v>
+        <v>1.049763269283034</v>
       </c>
       <c r="E7">
-        <v>1.047195996746239</v>
+        <v>1.063036449426352</v>
       </c>
       <c r="F7">
-        <v>1.053332182018546</v>
+        <v>1.070788672475806</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.060119433200307</v>
+        <v>1.04783924192405</v>
       </c>
       <c r="J7">
-        <v>1.049271756096761</v>
+        <v>1.053800809454079</v>
       </c>
       <c r="K7">
-        <v>1.051658956817383</v>
+        <v>1.052212238143333</v>
       </c>
       <c r="L7">
-        <v>1.056753495652071</v>
+        <v>1.065453239352582</v>
       </c>
       <c r="M7">
-        <v>1.062824079957886</v>
+        <v>1.073187064406894</v>
       </c>
       <c r="N7">
-        <v>1.050761842343571</v>
+        <v>1.055297327476146</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.024740437407726</v>
+        <v>1.048082937771921</v>
       </c>
       <c r="D8">
-        <v>1.037711651522285</v>
+        <v>1.048825093597347</v>
       </c>
       <c r="E8">
-        <v>1.041694616897701</v>
+        <v>1.061795233371039</v>
       </c>
       <c r="F8">
-        <v>1.047395456388359</v>
+        <v>1.069439184916706</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.057969537113219</v>
+        <v>1.047464462461303</v>
       </c>
       <c r="J8">
-        <v>1.045654528504156</v>
+        <v>1.053011657944955</v>
       </c>
       <c r="K8">
-        <v>1.048403920901684</v>
+        <v>1.051521247370125</v>
       </c>
       <c r="L8">
-        <v>1.05233794182068</v>
+        <v>1.064456562979635</v>
       </c>
       <c r="M8">
-        <v>1.057969531090383</v>
+        <v>1.072080418235706</v>
       </c>
       <c r="N8">
-        <v>1.047139477872882</v>
+        <v>1.054507055281362</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.013888036991562</v>
+        <v>1.045881023972444</v>
       </c>
       <c r="D9">
-        <v>1.029740450312205</v>
+        <v>1.047173822183246</v>
       </c>
       <c r="E9">
-        <v>1.031592149478018</v>
+        <v>1.059613775050004</v>
       </c>
       <c r="F9">
-        <v>1.036495291660461</v>
+        <v>1.067068001420719</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.053927801500675</v>
+        <v>1.046795545326829</v>
       </c>
       <c r="J9">
-        <v>1.038959727790457</v>
+        <v>1.051619130578069</v>
       </c>
       <c r="K9">
-        <v>1.042368758084709</v>
+        <v>1.050300375236805</v>
       </c>
       <c r="L9">
-        <v>1.044192647718565</v>
+        <v>1.062701198124523</v>
       </c>
       <c r="M9">
-        <v>1.049022762501907</v>
+        <v>1.070132454315593</v>
       </c>
       <c r="N9">
-        <v>1.040435169774266</v>
+        <v>1.05311255036589</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.006293847737066</v>
+        <v>1.044415099474726</v>
       </c>
       <c r="D10">
-        <v>1.024179437005162</v>
+        <v>1.046074331394369</v>
       </c>
       <c r="E10">
-        <v>1.024552846723702</v>
+        <v>1.058163381996602</v>
       </c>
       <c r="F10">
-        <v>1.028900774705803</v>
+        <v>1.065491837441248</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.051049309266602</v>
+        <v>1.04634391016311</v>
       </c>
       <c r="J10">
-        <v>1.034259960160938</v>
+        <v>1.050689520218772</v>
       </c>
       <c r="K10">
-        <v>1.03812542952192</v>
+        <v>1.049484317549345</v>
       </c>
       <c r="L10">
-        <v>1.038492504882461</v>
+        <v>1.06153161850333</v>
       </c>
       <c r="M10">
-        <v>1.042767112833778</v>
+        <v>1.068835271849671</v>
       </c>
       <c r="N10">
-        <v>1.035728727935642</v>
+        <v>1.052181619853256</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.002911586431609</v>
+        <v>1.043780826036497</v>
       </c>
       <c r="D11">
-        <v>1.021707528130911</v>
+        <v>1.045598576063551</v>
       </c>
       <c r="E11">
-        <v>1.021425367552205</v>
+        <v>1.057536287043908</v>
       </c>
       <c r="F11">
-        <v>1.025526631769626</v>
+        <v>1.064810450769528</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04975593501597</v>
+        <v>1.04614700353213</v>
       </c>
       <c r="J11">
-        <v>1.032163739637794</v>
+        <v>1.050286699629987</v>
       </c>
       <c r="K11">
-        <v>1.036231363306442</v>
+        <v>1.049130457067091</v>
       </c>
       <c r="L11">
-        <v>1.03595423618342</v>
+        <v>1.061025346112858</v>
       </c>
       <c r="M11">
-        <v>1.039982691370157</v>
+        <v>1.068273935325351</v>
       </c>
       <c r="N11">
-        <v>1.033629530538915</v>
+        <v>1.05177822721303</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.0016403521212</v>
+        <v>1.043545301680124</v>
       </c>
       <c r="D12">
-        <v>1.020779249217831</v>
+        <v>1.045421910283656</v>
       </c>
       <c r="E12">
-        <v>1.020251089178206</v>
+        <v>1.05730349752656</v>
       </c>
       <c r="F12">
-        <v>1.024259727954489</v>
+        <v>1.064557520070573</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049268156648295</v>
+        <v>1.046073661925454</v>
       </c>
       <c r="J12">
-        <v>1.031375451180559</v>
+        <v>1.050137030806365</v>
       </c>
       <c r="K12">
-        <v>1.03551889318689</v>
+        <v>1.048998942839209</v>
       </c>
       <c r="L12">
-        <v>1.035000329519143</v>
+        <v>1.060837319387706</v>
       </c>
       <c r="M12">
-        <v>1.038936455218125</v>
+        <v>1.068065483712237</v>
       </c>
       <c r="N12">
-        <v>1.032840122621653</v>
+        <v>1.05162834584251</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.001913724472558</v>
+        <v>1.043595819137694</v>
       </c>
       <c r="D13">
-        <v>1.020978833627393</v>
+        <v>1.045459803370052</v>
       </c>
       <c r="E13">
-        <v>1.020503556892306</v>
+        <v>1.057353425249982</v>
       </c>
       <c r="F13">
-        <v>1.024532110634437</v>
+        <v>1.064611767007127</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04937312502704</v>
+        <v>1.04608940306993</v>
       </c>
       <c r="J13">
-        <v>1.031544986650458</v>
+        <v>1.050169137225832</v>
       </c>
       <c r="K13">
-        <v>1.035672131504112</v>
+        <v>1.049027156455334</v>
       </c>
       <c r="L13">
-        <v>1.035205456474193</v>
+        <v>1.060877650596273</v>
       </c>
       <c r="M13">
-        <v>1.039161428676533</v>
+        <v>1.068110194843771</v>
       </c>
       <c r="N13">
-        <v>1.033009898851365</v>
+        <v>1.051660497856776</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.002806814835334</v>
+        <v>1.043761356025713</v>
       </c>
       <c r="D14">
-        <v>1.02163100535598</v>
+        <v>1.045583971769473</v>
       </c>
       <c r="E14">
-        <v>1.021328562228135</v>
+        <v>1.057517041697914</v>
       </c>
       <c r="F14">
-        <v>1.025422190857247</v>
+        <v>1.064789540033786</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.049715767118224</v>
+        <v>1.046140945204399</v>
       </c>
       <c r="J14">
-        <v>1.032098779313419</v>
+        <v>1.050274328837884</v>
       </c>
       <c r="K14">
-        <v>1.036172654964379</v>
+        <v>1.04911958757929</v>
       </c>
       <c r="L14">
-        <v>1.03587561534048</v>
+        <v>1.061009803242394</v>
       </c>
       <c r="M14">
-        <v>1.0398964571741</v>
+        <v>1.068256703548111</v>
       </c>
       <c r="N14">
-        <v>1.033564477963429</v>
+        <v>1.051765838852983</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.003355076408635</v>
+        <v>1.043863358465113</v>
       </c>
       <c r="D15">
-        <v>1.022031475946853</v>
+        <v>1.045660482801591</v>
       </c>
       <c r="E15">
-        <v>1.021835185917244</v>
+        <v>1.057617869968287</v>
       </c>
       <c r="F15">
-        <v>1.025968774354738</v>
+        <v>1.064899093974735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.049925895248991</v>
+        <v>1.046172675298591</v>
       </c>
       <c r="J15">
-        <v>1.03243869488183</v>
+        <v>1.050339135143024</v>
       </c>
       <c r="K15">
-        <v>1.036479847842282</v>
+        <v>1.049176527570751</v>
       </c>
       <c r="L15">
-        <v>1.036287036832024</v>
+        <v>1.061091230238088</v>
       </c>
       <c r="M15">
-        <v>1.040347726399418</v>
+        <v>1.068346979546937</v>
       </c>
       <c r="N15">
-        <v>1.033904876250936</v>
+        <v>1.05183073719051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.006516271314852</v>
+        <v>1.044457204318506</v>
       </c>
       <c r="D16">
-        <v>1.024342100659634</v>
+        <v>1.04610591278898</v>
       </c>
       <c r="E16">
-        <v>1.024758678553027</v>
+        <v>1.058205020006124</v>
       </c>
       <c r="F16">
-        <v>1.029122839692832</v>
+        <v>1.06553708214714</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05113413112656</v>
+        <v>1.046356949895145</v>
       </c>
       <c r="J16">
-        <v>1.034397751192629</v>
+        <v>1.050716247979609</v>
       </c>
       <c r="K16">
-        <v>1.038249903609467</v>
+        <v>1.04950779158894</v>
       </c>
       <c r="L16">
-        <v>1.038659438759583</v>
+        <v>1.061565221647455</v>
       </c>
       <c r="M16">
-        <v>1.042950260252432</v>
+        <v>1.068872533397838</v>
       </c>
       <c r="N16">
-        <v>1.035866714646402</v>
+        <v>1.052208385570578</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.008473510973097</v>
+        <v>1.04482983754375</v>
       </c>
       <c r="D17">
-        <v>1.025774034297022</v>
+        <v>1.046385408790725</v>
       </c>
       <c r="E17">
-        <v>1.026570793362199</v>
+        <v>1.058573574710608</v>
       </c>
       <c r="F17">
-        <v>1.031077868853115</v>
+        <v>1.065937571193428</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051879242034681</v>
+        <v>1.046472180534782</v>
       </c>
       <c r="J17">
-        <v>1.035609914414109</v>
+        <v>1.050952722919659</v>
       </c>
       <c r="K17">
-        <v>1.039344755068176</v>
+        <v>1.049715450852298</v>
       </c>
       <c r="L17">
-        <v>1.040128445402583</v>
+        <v>1.061862588254715</v>
       </c>
       <c r="M17">
-        <v>1.044562082504182</v>
+        <v>1.069202294312362</v>
       </c>
       <c r="N17">
-        <v>1.037080599278694</v>
+        <v>1.052445196332168</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.009606130122028</v>
+        <v>1.045047234614743</v>
       </c>
       <c r="D18">
-        <v>1.026603121456113</v>
+        <v>1.046548465982332</v>
       </c>
       <c r="E18">
-        <v>1.027620153991121</v>
+        <v>1.0587886365611</v>
       </c>
       <c r="F18">
-        <v>1.032209990317576</v>
+        <v>1.066171276010412</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052309342587532</v>
+        <v>1.046539262753854</v>
       </c>
       <c r="J18">
-        <v>1.036311077879334</v>
+        <v>1.051090626416163</v>
       </c>
       <c r="K18">
-        <v>1.03997792437668</v>
+        <v>1.049836526489883</v>
       </c>
       <c r="L18">
-        <v>1.040978570823455</v>
+        <v>1.062036052865114</v>
       </c>
       <c r="M18">
-        <v>1.045494971950167</v>
+        <v>1.069394672182944</v>
       </c>
       <c r="N18">
-        <v>1.037782758476464</v>
+        <v>1.052583295667455</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.009990819852479</v>
+        <v>1.045121369249703</v>
       </c>
       <c r="D19">
-        <v>1.02688479250691</v>
+        <v>1.046604069647465</v>
       </c>
       <c r="E19">
-        <v>1.027976686531034</v>
+        <v>1.058861982350349</v>
       </c>
       <c r="F19">
-        <v>1.032594642490049</v>
+        <v>1.066250981319624</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052455239702373</v>
+        <v>1.046562114016301</v>
       </c>
       <c r="J19">
-        <v>1.036549174320866</v>
+        <v>1.051137643116592</v>
       </c>
       <c r="K19">
-        <v>1.040192908316407</v>
+        <v>1.04987780190467</v>
       </c>
       <c r="L19">
-        <v>1.041267317759515</v>
+        <v>1.062095202451667</v>
       </c>
       <c r="M19">
-        <v>1.045811849617422</v>
+        <v>1.069460273790176</v>
       </c>
       <c r="N19">
-        <v>1.038021193042253</v>
+        <v>1.05263037913699</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.008264454778452</v>
+        <v>1.044789852719252</v>
       </c>
       <c r="D20">
-        <v>1.025621039454025</v>
+        <v>1.04635541820679</v>
       </c>
       <c r="E20">
-        <v>1.026377162917445</v>
+        <v>1.058534022949105</v>
       </c>
       <c r="F20">
-        <v>1.030868967425194</v>
+        <v>1.065894591503435</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.051799767317675</v>
+        <v>1.046459830806814</v>
       </c>
       <c r="J20">
-        <v>1.035480471282541</v>
+        <v>1.050927354322151</v>
       </c>
       <c r="K20">
-        <v>1.039227853356426</v>
+        <v>1.04969317598949</v>
       </c>
       <c r="L20">
-        <v>1.03997153398631</v>
+        <v>1.06183068200198</v>
       </c>
       <c r="M20">
-        <v>1.044389904339916</v>
+        <v>1.069166910573411</v>
       </c>
       <c r="N20">
-        <v>1.036950972323033</v>
+        <v>1.05241979170834</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.002544240340084</v>
+        <v>1.043712607516247</v>
       </c>
       <c r="D21">
-        <v>1.021439240033476</v>
+        <v>1.045547405855521</v>
       </c>
       <c r="E21">
-        <v>1.021085971907886</v>
+        <v>1.057468856818539</v>
       </c>
       <c r="F21">
-        <v>1.025160465846283</v>
+        <v>1.064737185700105</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.049615073336776</v>
+        <v>1.046125772895207</v>
       </c>
       <c r="J21">
-        <v>1.031935971712422</v>
+        <v>1.050243353720025</v>
       </c>
       <c r="K21">
-        <v>1.036025513255869</v>
+        <v>1.049092370972838</v>
       </c>
       <c r="L21">
-        <v>1.035678580778164</v>
+        <v>1.060970886874428</v>
       </c>
       <c r="M21">
-        <v>1.039680345345936</v>
+        <v>1.068213558895083</v>
       </c>
       <c r="N21">
-        <v>1.033401439156964</v>
+        <v>1.051734819746904</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9988609998650519</v>
+        <v>1.043035723632965</v>
       </c>
       <c r="D22">
-        <v>1.018751260611712</v>
+        <v>1.045039671666106</v>
       </c>
       <c r="E22">
-        <v>1.01768596653749</v>
+        <v>1.056799963603904</v>
       </c>
       <c r="F22">
-        <v>1.021492239326154</v>
+        <v>1.064010443403911</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048198710589443</v>
+        <v>1.045914570580921</v>
       </c>
       <c r="J22">
-        <v>1.029651266195552</v>
+        <v>1.049813045109494</v>
       </c>
       <c r="K22">
-        <v>1.03396018419412</v>
+        <v>1.048714189256284</v>
       </c>
       <c r="L22">
-        <v>1.032915018495789</v>
+        <v>1.060430446829258</v>
       </c>
       <c r="M22">
-        <v>1.036649624981438</v>
+        <v>1.067614460362771</v>
       </c>
       <c r="N22">
-        <v>1.031113489096201</v>
+        <v>1.051303900048789</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.000822057411741</v>
+        <v>1.043394512264728</v>
       </c>
       <c r="D23">
-        <v>1.020181948819421</v>
+        <v>1.045308802800666</v>
       </c>
       <c r="E23">
-        <v>1.019495547851448</v>
+        <v>1.057154478577528</v>
       </c>
       <c r="F23">
-        <v>1.023444586127594</v>
+        <v>1.064395611478972</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048953711929932</v>
+        <v>1.046026643377003</v>
       </c>
       <c r="J23">
-        <v>1.030867917256611</v>
+        <v>1.050041183327395</v>
       </c>
       <c r="K23">
-        <v>1.035060118974367</v>
+        <v>1.048914711214909</v>
       </c>
       <c r="L23">
-        <v>1.034386335822267</v>
+        <v>1.060716930078725</v>
       </c>
       <c r="M23">
-        <v>1.038263081778753</v>
+        <v>1.067932024009875</v>
       </c>
       <c r="N23">
-        <v>1.032331867941318</v>
+        <v>1.051532362249127</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.00835894604575</v>
+        <v>1.044807919996912</v>
       </c>
       <c r="D24">
-        <v>1.025690190162791</v>
+        <v>1.046368969562272</v>
       </c>
       <c r="E24">
-        <v>1.02646467966611</v>
+        <v>1.058551894409236</v>
       </c>
       <c r="F24">
-        <v>1.030963386319241</v>
+        <v>1.065914011846812</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.051835692436382</v>
+        <v>1.046465411518572</v>
       </c>
       <c r="J24">
-        <v>1.035538979170597</v>
+        <v>1.050938817386979</v>
       </c>
       <c r="K24">
-        <v>1.039280692986028</v>
+        <v>1.049703241191083</v>
       </c>
       <c r="L24">
-        <v>1.040042456231709</v>
+        <v>1.061845099015745</v>
       </c>
       <c r="M24">
-        <v>1.04446772662995</v>
+        <v>1.069182898857245</v>
       </c>
       <c r="N24">
-        <v>1.037009563299001</v>
+        <v>1.052431271052036</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.016754195341053</v>
+        <v>1.046449919233728</v>
       </c>
       <c r="D25">
-        <v>1.031842994801683</v>
+        <v>1.047600481394471</v>
       </c>
       <c r="E25">
-        <v>1.034255219079064</v>
+        <v>1.060177049456596</v>
       </c>
       <c r="F25">
-        <v>1.039368490545109</v>
+        <v>1.067680198587524</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055004062079567</v>
+        <v>1.046969481602184</v>
       </c>
       <c r="J25">
-        <v>1.040730576656494</v>
+        <v>1.05197935757028</v>
       </c>
       <c r="K25">
-        <v>1.043966311518785</v>
+        <v>1.050616381145457</v>
       </c>
       <c r="L25">
-        <v>1.04634406111297</v>
+        <v>1.063154889032306</v>
       </c>
       <c r="M25">
-        <v>1.051384924005545</v>
+        <v>1.07063579645088</v>
       </c>
       <c r="N25">
-        <v>1.042208533448812</v>
+        <v>1.053473288921749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_215/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_215/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.047761014565285</v>
+        <v>1.023193810463461</v>
       </c>
       <c r="D2">
-        <v>1.04858369611772</v>
+        <v>1.036573993794317</v>
       </c>
       <c r="E2">
-        <v>1.061476079636409</v>
+        <v>1.040251655406485</v>
       </c>
       <c r="F2">
-        <v>1.069092229906419</v>
+        <v>1.045838444020934</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047367400325523</v>
+        <v>1.05739934405719</v>
       </c>
       <c r="J2">
-        <v>1.052808364554159</v>
+        <v>1.04470225772433</v>
       </c>
       <c r="K2">
-        <v>1.051343135170294</v>
+        <v>1.047546267079028</v>
       </c>
       <c r="L2">
-        <v>1.064200037213684</v>
+        <v>1.051177318477148</v>
       </c>
       <c r="M2">
-        <v>1.071795661885899</v>
+        <v>1.056694082435176</v>
       </c>
       <c r="N2">
-        <v>1.054303473190633</v>
+        <v>1.046185854759323</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.048713810897527</v>
+        <v>1.027732757503149</v>
       </c>
       <c r="D3">
-        <v>1.049298136647545</v>
+        <v>1.039914189681612</v>
       </c>
       <c r="E3">
-        <v>1.062420903950883</v>
+        <v>1.044489511466694</v>
       </c>
       <c r="F3">
-        <v>1.070119402645932</v>
+        <v>1.050411409061905</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047653923427502</v>
+        <v>1.059066646763294</v>
       </c>
       <c r="J3">
-        <v>1.053409748226745</v>
+        <v>1.047494926334694</v>
       </c>
       <c r="K3">
-        <v>1.051869902944492</v>
+        <v>1.050060615284257</v>
       </c>
       <c r="L3">
-        <v>1.064959161825411</v>
+        <v>1.054583109404185</v>
       </c>
       <c r="M3">
-        <v>1.07263841461085</v>
+        <v>1.060437473931886</v>
       </c>
       <c r="N3">
-        <v>1.054905710897013</v>
+        <v>1.048982489279437</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.049330711910519</v>
+        <v>1.030610083833084</v>
       </c>
       <c r="D4">
-        <v>1.049760670503712</v>
+        <v>1.04203384930448</v>
       </c>
       <c r="E4">
-        <v>1.063033009318421</v>
+        <v>1.047180988681564</v>
       </c>
       <c r="F4">
-        <v>1.070784931949798</v>
+        <v>1.053315985006339</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047838209235339</v>
+        <v>1.060113622338377</v>
       </c>
       <c r="J4">
-        <v>1.05379862556187</v>
+        <v>1.049261918228239</v>
       </c>
       <c r="K4">
-        <v>1.052210326822326</v>
+        <v>1.051650110422285</v>
       </c>
       <c r="L4">
-        <v>1.065450479176373</v>
+        <v>1.056741470948835</v>
       </c>
       <c r="M4">
-        <v>1.07318399904279</v>
+        <v>1.062810854870553</v>
       </c>
       <c r="N4">
-        <v>1.055295140482559</v>
+        <v>1.050751990504148</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.049590146791748</v>
+        <v>1.031805930384324</v>
       </c>
       <c r="D5">
-        <v>1.049955176735991</v>
+        <v>1.042915293515561</v>
       </c>
       <c r="E5">
-        <v>1.063290514669869</v>
+        <v>1.048300770163703</v>
       </c>
       <c r="F5">
-        <v>1.071064930035245</v>
+        <v>1.054524498474062</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047915415833096</v>
+        <v>1.060546331288401</v>
       </c>
       <c r="J5">
-        <v>1.053962047000609</v>
+        <v>1.049995468398297</v>
       </c>
       <c r="K5">
-        <v>1.052353337240127</v>
+        <v>1.052309630002928</v>
       </c>
       <c r="L5">
-        <v>1.065657055103779</v>
+        <v>1.057638325881309</v>
       </c>
       <c r="M5">
-        <v>1.073413425707827</v>
+        <v>1.063797317058413</v>
       </c>
       <c r="N5">
-        <v>1.055458793998487</v>
+        <v>1.051486582399586</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.049633712286027</v>
+        <v>1.032005924351843</v>
       </c>
       <c r="D6">
-        <v>1.049987838496122</v>
+        <v>1.04306273425589</v>
       </c>
       <c r="E6">
-        <v>1.063333761254983</v>
+        <v>1.048488111286443</v>
       </c>
       <c r="F6">
-        <v>1.07111195520378</v>
+        <v>1.054726689105294</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047928363479651</v>
+        <v>1.060618554188781</v>
       </c>
       <c r="J6">
-        <v>1.053989482485574</v>
+        <v>1.050118098052799</v>
       </c>
       <c r="K6">
-        <v>1.052377343209166</v>
+        <v>1.052419863229979</v>
       </c>
       <c r="L6">
-        <v>1.065691741615235</v>
+        <v>1.057788304764305</v>
       </c>
       <c r="M6">
-        <v>1.073451951118975</v>
+        <v>1.063962296220603</v>
       </c>
       <c r="N6">
-        <v>1.055486268444987</v>
+        <v>1.051609386202264</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.04933417814067</v>
+        <v>1.030626116293978</v>
       </c>
       <c r="D7">
-        <v>1.049763269283034</v>
+        <v>1.042045664757985</v>
       </c>
       <c r="E7">
-        <v>1.063036449426352</v>
+        <v>1.047195996746238</v>
       </c>
       <c r="F7">
-        <v>1.070788672475806</v>
+        <v>1.053332182018546</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04783924192405</v>
+        <v>1.060119433200307</v>
       </c>
       <c r="J7">
-        <v>1.053800809454079</v>
+        <v>1.049271756096761</v>
       </c>
       <c r="K7">
-        <v>1.052212238143333</v>
+        <v>1.051658956817382</v>
       </c>
       <c r="L7">
-        <v>1.065453239352582</v>
+        <v>1.056753495652071</v>
       </c>
       <c r="M7">
-        <v>1.073187064406894</v>
+        <v>1.062824079957885</v>
       </c>
       <c r="N7">
-        <v>1.055297327476146</v>
+        <v>1.050761842343571</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.048082937771921</v>
+        <v>1.024740437407725</v>
       </c>
       <c r="D8">
-        <v>1.048825093597347</v>
+        <v>1.037711651522285</v>
       </c>
       <c r="E8">
-        <v>1.061795233371039</v>
+        <v>1.0416946168977</v>
       </c>
       <c r="F8">
-        <v>1.069439184916706</v>
+        <v>1.047395456388359</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047464462461303</v>
+        <v>1.057969537113219</v>
       </c>
       <c r="J8">
-        <v>1.053011657944955</v>
+        <v>1.045654528504155</v>
       </c>
       <c r="K8">
-        <v>1.051521247370125</v>
+        <v>1.048403920901684</v>
       </c>
       <c r="L8">
-        <v>1.064456562979635</v>
+        <v>1.05233794182068</v>
       </c>
       <c r="M8">
-        <v>1.072080418235706</v>
+        <v>1.057969531090383</v>
       </c>
       <c r="N8">
-        <v>1.054507055281362</v>
+        <v>1.047139477872882</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.045881023972444</v>
+        <v>1.013888036991561</v>
       </c>
       <c r="D9">
-        <v>1.047173822183246</v>
+        <v>1.029740450312204</v>
       </c>
       <c r="E9">
-        <v>1.059613775050004</v>
+        <v>1.031592149478016</v>
       </c>
       <c r="F9">
-        <v>1.067068001420719</v>
+        <v>1.036495291660459</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046795545326829</v>
+        <v>1.053927801500675</v>
       </c>
       <c r="J9">
-        <v>1.051619130578069</v>
+        <v>1.038959727790455</v>
       </c>
       <c r="K9">
-        <v>1.050300375236805</v>
+        <v>1.042368758084707</v>
       </c>
       <c r="L9">
-        <v>1.062701198124523</v>
+        <v>1.044192647718563</v>
       </c>
       <c r="M9">
-        <v>1.070132454315593</v>
+        <v>1.049022762501906</v>
       </c>
       <c r="N9">
-        <v>1.05311255036589</v>
+        <v>1.040435169774264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.044415099474726</v>
+        <v>1.006293847737066</v>
       </c>
       <c r="D10">
-        <v>1.046074331394369</v>
+        <v>1.024179437005162</v>
       </c>
       <c r="E10">
-        <v>1.058163381996602</v>
+        <v>1.024552846723703</v>
       </c>
       <c r="F10">
-        <v>1.065491837441248</v>
+        <v>1.028900774705803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04634391016311</v>
+        <v>1.051049309266602</v>
       </c>
       <c r="J10">
-        <v>1.050689520218772</v>
+        <v>1.034259960160939</v>
       </c>
       <c r="K10">
-        <v>1.049484317549345</v>
+        <v>1.03812542952192</v>
       </c>
       <c r="L10">
-        <v>1.06153161850333</v>
+        <v>1.038492504882461</v>
       </c>
       <c r="M10">
-        <v>1.068835271849671</v>
+        <v>1.042767112833778</v>
       </c>
       <c r="N10">
-        <v>1.052181619853256</v>
+        <v>1.035728727935643</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.043780826036497</v>
+        <v>1.00291158643161</v>
       </c>
       <c r="D11">
-        <v>1.045598576063551</v>
+        <v>1.021707528130911</v>
       </c>
       <c r="E11">
-        <v>1.057536287043908</v>
+        <v>1.021425367552205</v>
       </c>
       <c r="F11">
-        <v>1.064810450769528</v>
+        <v>1.025526631769626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.04614700353213</v>
+        <v>1.04975593501597</v>
       </c>
       <c r="J11">
-        <v>1.050286699629987</v>
+        <v>1.032163739637794</v>
       </c>
       <c r="K11">
-        <v>1.049130457067091</v>
+        <v>1.036231363306442</v>
       </c>
       <c r="L11">
-        <v>1.061025346112858</v>
+        <v>1.03595423618342</v>
       </c>
       <c r="M11">
-        <v>1.068273935325351</v>
+        <v>1.039982691370156</v>
       </c>
       <c r="N11">
-        <v>1.05177822721303</v>
+        <v>1.033629530538915</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.043545301680124</v>
+        <v>1.001640352121201</v>
       </c>
       <c r="D12">
-        <v>1.045421910283656</v>
+        <v>1.020779249217832</v>
       </c>
       <c r="E12">
-        <v>1.05730349752656</v>
+        <v>1.020251089178207</v>
       </c>
       <c r="F12">
-        <v>1.064557520070573</v>
+        <v>1.02425972795449</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046073661925454</v>
+        <v>1.049268156648296</v>
       </c>
       <c r="J12">
-        <v>1.050137030806365</v>
+        <v>1.03137545118056</v>
       </c>
       <c r="K12">
-        <v>1.048998942839209</v>
+        <v>1.035518893186891</v>
       </c>
       <c r="L12">
-        <v>1.060837319387706</v>
+        <v>1.035000329519144</v>
       </c>
       <c r="M12">
-        <v>1.068065483712237</v>
+        <v>1.038936455218126</v>
       </c>
       <c r="N12">
-        <v>1.05162834584251</v>
+        <v>1.032840122621655</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.043595819137694</v>
+        <v>1.001913724472558</v>
       </c>
       <c r="D13">
-        <v>1.045459803370052</v>
+        <v>1.020978833627393</v>
       </c>
       <c r="E13">
-        <v>1.057353425249982</v>
+        <v>1.020503556892306</v>
       </c>
       <c r="F13">
-        <v>1.064611767007127</v>
+        <v>1.024532110634437</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04608940306993</v>
+        <v>1.04937312502704</v>
       </c>
       <c r="J13">
-        <v>1.050169137225832</v>
+        <v>1.031544986650457</v>
       </c>
       <c r="K13">
-        <v>1.049027156455334</v>
+        <v>1.035672131504112</v>
       </c>
       <c r="L13">
-        <v>1.060877650596273</v>
+        <v>1.035205456474193</v>
       </c>
       <c r="M13">
-        <v>1.068110194843771</v>
+        <v>1.039161428676533</v>
       </c>
       <c r="N13">
-        <v>1.051660497856776</v>
+        <v>1.033009898851365</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.043761356025713</v>
+        <v>1.002806814835332</v>
       </c>
       <c r="D14">
-        <v>1.045583971769473</v>
+        <v>1.021631005355978</v>
       </c>
       <c r="E14">
-        <v>1.057517041697914</v>
+        <v>1.021328562228133</v>
       </c>
       <c r="F14">
-        <v>1.064789540033786</v>
+        <v>1.025422190857246</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.046140945204399</v>
+        <v>1.049715767118222</v>
       </c>
       <c r="J14">
-        <v>1.050274328837884</v>
+        <v>1.032098779313417</v>
       </c>
       <c r="K14">
-        <v>1.04911958757929</v>
+        <v>1.036172654964378</v>
       </c>
       <c r="L14">
-        <v>1.061009803242394</v>
+        <v>1.035875615340478</v>
       </c>
       <c r="M14">
-        <v>1.068256703548111</v>
+        <v>1.039896457174098</v>
       </c>
       <c r="N14">
-        <v>1.051765838852983</v>
+        <v>1.033564477963427</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.043863358465113</v>
+        <v>1.003355076408635</v>
       </c>
       <c r="D15">
-        <v>1.045660482801591</v>
+        <v>1.022031475946852</v>
       </c>
       <c r="E15">
-        <v>1.057617869968287</v>
+        <v>1.021835185917244</v>
       </c>
       <c r="F15">
-        <v>1.064899093974735</v>
+        <v>1.025968774354738</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.046172675298591</v>
+        <v>1.049925895248991</v>
       </c>
       <c r="J15">
-        <v>1.050339135143024</v>
+        <v>1.03243869488183</v>
       </c>
       <c r="K15">
-        <v>1.049176527570751</v>
+        <v>1.036479847842282</v>
       </c>
       <c r="L15">
-        <v>1.061091230238088</v>
+        <v>1.036287036832024</v>
       </c>
       <c r="M15">
-        <v>1.068346979546937</v>
+        <v>1.040347726399418</v>
       </c>
       <c r="N15">
-        <v>1.05183073719051</v>
+        <v>1.033904876250936</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.044457204318506</v>
+        <v>1.006516271314852</v>
       </c>
       <c r="D16">
-        <v>1.04610591278898</v>
+        <v>1.024342100659634</v>
       </c>
       <c r="E16">
-        <v>1.058205020006124</v>
+        <v>1.024758678553027</v>
       </c>
       <c r="F16">
-        <v>1.06553708214714</v>
+        <v>1.029122839692831</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046356949895145</v>
+        <v>1.051134131126561</v>
       </c>
       <c r="J16">
-        <v>1.050716247979609</v>
+        <v>1.034397751192629</v>
       </c>
       <c r="K16">
-        <v>1.04950779158894</v>
+        <v>1.038249903609467</v>
       </c>
       <c r="L16">
-        <v>1.061565221647455</v>
+        <v>1.038659438759583</v>
       </c>
       <c r="M16">
-        <v>1.068872533397838</v>
+        <v>1.042950260252432</v>
       </c>
       <c r="N16">
-        <v>1.052208385570578</v>
+        <v>1.035866714646403</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.04482983754375</v>
+        <v>1.008473510973096</v>
       </c>
       <c r="D17">
-        <v>1.046385408790725</v>
+        <v>1.025774034297021</v>
       </c>
       <c r="E17">
-        <v>1.058573574710608</v>
+        <v>1.026570793362199</v>
       </c>
       <c r="F17">
-        <v>1.065937571193428</v>
+        <v>1.031077868853115</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046472180534782</v>
+        <v>1.051879242034681</v>
       </c>
       <c r="J17">
-        <v>1.050952722919659</v>
+        <v>1.035609914414109</v>
       </c>
       <c r="K17">
-        <v>1.049715450852298</v>
+        <v>1.039344755068176</v>
       </c>
       <c r="L17">
-        <v>1.061862588254715</v>
+        <v>1.040128445402583</v>
       </c>
       <c r="M17">
-        <v>1.069202294312362</v>
+        <v>1.044562082504182</v>
       </c>
       <c r="N17">
-        <v>1.052445196332168</v>
+        <v>1.037080599278694</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.045047234614743</v>
+        <v>1.009606130122028</v>
       </c>
       <c r="D18">
-        <v>1.046548465982332</v>
+        <v>1.026603121456114</v>
       </c>
       <c r="E18">
-        <v>1.0587886365611</v>
+        <v>1.027620153991121</v>
       </c>
       <c r="F18">
-        <v>1.066171276010412</v>
+        <v>1.032209990317576</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046539262753854</v>
+        <v>1.052309342587532</v>
       </c>
       <c r="J18">
-        <v>1.051090626416163</v>
+        <v>1.036311077879334</v>
       </c>
       <c r="K18">
-        <v>1.049836526489883</v>
+        <v>1.03997792437668</v>
       </c>
       <c r="L18">
-        <v>1.062036052865114</v>
+        <v>1.040978570823455</v>
       </c>
       <c r="M18">
-        <v>1.069394672182944</v>
+        <v>1.045494971950167</v>
       </c>
       <c r="N18">
-        <v>1.052583295667455</v>
+        <v>1.037782758476465</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.045121369249703</v>
+        <v>1.009990819852478</v>
       </c>
       <c r="D19">
-        <v>1.046604069647465</v>
+        <v>1.02688479250691</v>
       </c>
       <c r="E19">
-        <v>1.058861982350349</v>
+        <v>1.027976686531033</v>
       </c>
       <c r="F19">
-        <v>1.066250981319624</v>
+        <v>1.032594642490049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046562114016301</v>
+        <v>1.052455239702372</v>
       </c>
       <c r="J19">
-        <v>1.051137643116592</v>
+        <v>1.036549174320865</v>
       </c>
       <c r="K19">
-        <v>1.04987780190467</v>
+        <v>1.040192908316406</v>
       </c>
       <c r="L19">
-        <v>1.062095202451667</v>
+        <v>1.041267317759514</v>
       </c>
       <c r="M19">
-        <v>1.069460273790176</v>
+        <v>1.045811849617421</v>
       </c>
       <c r="N19">
-        <v>1.05263037913699</v>
+        <v>1.038021193042253</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.044789852719252</v>
+        <v>1.008264454778453</v>
       </c>
       <c r="D20">
-        <v>1.04635541820679</v>
+        <v>1.025621039454026</v>
       </c>
       <c r="E20">
-        <v>1.058534022949105</v>
+        <v>1.026377162917447</v>
       </c>
       <c r="F20">
-        <v>1.065894591503435</v>
+        <v>1.030868967425195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046459830806814</v>
+        <v>1.051799767317675</v>
       </c>
       <c r="J20">
-        <v>1.050927354322151</v>
+        <v>1.035480471282542</v>
       </c>
       <c r="K20">
-        <v>1.04969317598949</v>
+        <v>1.039227853356427</v>
       </c>
       <c r="L20">
-        <v>1.06183068200198</v>
+        <v>1.039971533986311</v>
       </c>
       <c r="M20">
-        <v>1.069166910573411</v>
+        <v>1.044389904339917</v>
       </c>
       <c r="N20">
-        <v>1.05241979170834</v>
+        <v>1.036950972323034</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.043712607516247</v>
+        <v>1.002544240340084</v>
       </c>
       <c r="D21">
-        <v>1.045547405855521</v>
+        <v>1.021439240033475</v>
       </c>
       <c r="E21">
-        <v>1.057468856818539</v>
+        <v>1.021085971907884</v>
       </c>
       <c r="F21">
-        <v>1.064737185700105</v>
+        <v>1.025160465846282</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.046125772895207</v>
+        <v>1.049615073336775</v>
       </c>
       <c r="J21">
-        <v>1.050243353720025</v>
+        <v>1.031935971712421</v>
       </c>
       <c r="K21">
-        <v>1.049092370972838</v>
+        <v>1.036025513255869</v>
       </c>
       <c r="L21">
-        <v>1.060970886874428</v>
+        <v>1.035678580778163</v>
       </c>
       <c r="M21">
-        <v>1.068213558895083</v>
+        <v>1.039680345345935</v>
       </c>
       <c r="N21">
-        <v>1.051734819746904</v>
+        <v>1.033401439156963</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.043035723632965</v>
+        <v>0.9988609998650522</v>
       </c>
       <c r="D22">
-        <v>1.045039671666106</v>
+        <v>1.018751260611713</v>
       </c>
       <c r="E22">
-        <v>1.056799963603904</v>
+        <v>1.017685966537491</v>
       </c>
       <c r="F22">
-        <v>1.064010443403911</v>
+        <v>1.021492239326155</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045914570580921</v>
+        <v>1.048198710589444</v>
       </c>
       <c r="J22">
-        <v>1.049813045109494</v>
+        <v>1.029651266195552</v>
       </c>
       <c r="K22">
-        <v>1.048714189256284</v>
+        <v>1.033960184194121</v>
       </c>
       <c r="L22">
-        <v>1.060430446829258</v>
+        <v>1.03291501849579</v>
       </c>
       <c r="M22">
-        <v>1.067614460362771</v>
+        <v>1.036649624981439</v>
       </c>
       <c r="N22">
-        <v>1.051303900048789</v>
+        <v>1.031113489096201</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.043394512264728</v>
+        <v>1.00082205741174</v>
       </c>
       <c r="D23">
-        <v>1.045308802800666</v>
+        <v>1.02018194881942</v>
       </c>
       <c r="E23">
-        <v>1.057154478577528</v>
+        <v>1.019495547851447</v>
       </c>
       <c r="F23">
-        <v>1.064395611478972</v>
+        <v>1.023444586127593</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046026643377003</v>
+        <v>1.048953711929931</v>
       </c>
       <c r="J23">
-        <v>1.050041183327395</v>
+        <v>1.03086791725661</v>
       </c>
       <c r="K23">
-        <v>1.048914711214909</v>
+        <v>1.035060118974366</v>
       </c>
       <c r="L23">
-        <v>1.060716930078725</v>
+        <v>1.034386335822266</v>
       </c>
       <c r="M23">
-        <v>1.067932024009875</v>
+        <v>1.038263081778752</v>
       </c>
       <c r="N23">
-        <v>1.051532362249127</v>
+        <v>1.032331867941317</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.044807919996912</v>
+        <v>1.00835894604575</v>
       </c>
       <c r="D24">
-        <v>1.046368969562272</v>
+        <v>1.02569019016279</v>
       </c>
       <c r="E24">
-        <v>1.058551894409236</v>
+        <v>1.026464679666111</v>
       </c>
       <c r="F24">
-        <v>1.065914011846812</v>
+        <v>1.030963386319241</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046465411518572</v>
+        <v>1.051835692436382</v>
       </c>
       <c r="J24">
-        <v>1.050938817386979</v>
+        <v>1.035538979170598</v>
       </c>
       <c r="K24">
-        <v>1.049703241191083</v>
+        <v>1.039280692986028</v>
       </c>
       <c r="L24">
-        <v>1.061845099015745</v>
+        <v>1.040042456231709</v>
       </c>
       <c r="M24">
-        <v>1.069182898857245</v>
+        <v>1.04446772662995</v>
       </c>
       <c r="N24">
-        <v>1.052431271052036</v>
+        <v>1.037009563299001</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.046449919233728</v>
+        <v>1.016754195341052</v>
       </c>
       <c r="D25">
-        <v>1.047600481394471</v>
+        <v>1.031842994801682</v>
       </c>
       <c r="E25">
-        <v>1.060177049456596</v>
+        <v>1.034255219079063</v>
       </c>
       <c r="F25">
-        <v>1.067680198587524</v>
+        <v>1.039368490545107</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046969481602184</v>
+        <v>1.055004062079567</v>
       </c>
       <c r="J25">
-        <v>1.05197935757028</v>
+        <v>1.040730576656493</v>
       </c>
       <c r="K25">
-        <v>1.050616381145457</v>
+        <v>1.043966311518784</v>
       </c>
       <c r="L25">
-        <v>1.063154889032306</v>
+        <v>1.046344061112969</v>
       </c>
       <c r="M25">
-        <v>1.07063579645088</v>
+        <v>1.051384924005544</v>
       </c>
       <c r="N25">
-        <v>1.053473288921749</v>
+        <v>1.042208533448811</v>
       </c>
     </row>
   </sheetData>
